--- a/mbs-perturbation/chain/randomForest/chain-randomForest-results.xlsx
+++ b/mbs-perturbation/chain/randomForest/chain-randomForest-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.125</v>
+        <v>0.1645569620253164</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2105263157894737</v>
+        <v>0.2765957446808511</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6688311688311688</v>
+        <v>0.7848484848484849</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>0.5714285714285715</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4543478260869565</v>
+        <v>0.9797979797979798</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.523913043478261</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0.9134199134199136</v>
       </c>
     </row>
     <row r="6">
@@ -552,7 +552,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.844927536231884</v>
+        <v>0.7243867243867245</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2535714285714286</v>
+        <v>0.2329113924050633</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.2533333333333333</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2421052631578947</v>
+        <v>0.1696048632218845</v>
       </c>
       <c r="E7" t="n">
-        <v>0.698403914925654</v>
+        <v>0.8804906204906207</v>
       </c>
     </row>
   </sheetData>
